--- a/Assets/Studies/CHI26_Study2_Saltation/data_processing/data/p12_data.xlsx
+++ b/Assets/Studies/CHI26_Study2_Saltation/data_processing/data/p12_data.xlsx
@@ -2721,6 +2721,9 @@
       <c r="A73">
         <v>12</v>
       </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
       <c r="C73">
         <v>9</v>
       </c>
@@ -2730,11 +2733,29 @@
       <c r="E73">
         <v>1</v>
       </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>0.1441716</v>
+      </c>
+      <c r="I73">
+        <v>0.1441716</v>
+      </c>
+      <c r="J73">
+        <v>0.9290273999999999</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
         <v>12</v>
       </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
       <c r="C74">
         <v>9</v>
       </c>
@@ -2744,11 +2765,29 @@
       <c r="E74">
         <v>1</v>
       </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>0.05267333</v>
+      </c>
+      <c r="I74">
+        <v>0.1584054</v>
+      </c>
+      <c r="J74">
+        <v>0.7866964</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
         <v>12</v>
       </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
       <c r="C75">
         <v>-15</v>
       </c>
@@ -2758,11 +2797,29 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75">
+        <v>-1</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.06987261</v>
+      </c>
+      <c r="I75">
+        <v>0.1390049</v>
+      </c>
+      <c r="J75">
+        <v>0.9299608</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
         <v>12</v>
       </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
       <c r="C76">
         <v>-15</v>
       </c>
@@ -2772,11 +2829,29 @@
       <c r="E76">
         <v>1</v>
       </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>0.8131291</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.9414202</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
         <v>12</v>
       </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
       <c r="C77">
         <v>9</v>
       </c>
@@ -2786,11 +2861,29 @@
       <c r="E77">
         <v>0</v>
       </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0.908887</v>
+      </c>
+      <c r="J77">
+        <v>0.5449252999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
         <v>12</v>
       </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
       <c r="C78">
         <v>9</v>
       </c>
@@ -2800,11 +2893,29 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>0.05673957</v>
+      </c>
+      <c r="I78">
+        <v>0.8842947</v>
+      </c>
+      <c r="J78">
+        <v>0.8842947</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
         <v>12</v>
       </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
       <c r="C79">
         <v>-15</v>
       </c>
@@ -2814,11 +2925,29 @@
       <c r="E79">
         <v>0</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>0.2397369</v>
+      </c>
+      <c r="I79">
+        <v>0.2397369</v>
+      </c>
+      <c r="J79">
+        <v>0.6484308</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
         <v>12</v>
       </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
       <c r="C80">
         <v>-15</v>
       </c>
@@ -2828,10 +2957,28 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>0.2824367</v>
+      </c>
+      <c r="I80">
+        <v>0.2824367</v>
+      </c>
+      <c r="J80">
+        <v>0.656565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>12</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
       </c>
       <c r="C81">
         <v>-15</v>
@@ -2842,10 +2989,28 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="I81">
+        <v>0.5</v>
+      </c>
+      <c r="J81">
+        <v>0.2621036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>12</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
       </c>
       <c r="C82">
         <v>-15</v>
@@ -2856,11 +3021,29 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>0.6606309</v>
+      </c>
+      <c r="I82">
+        <v>0.6606309</v>
+      </c>
+      <c r="J82">
+        <v>0.2621031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>12</v>
       </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
       <c r="C83">
         <v>0</v>
       </c>
@@ -2870,11 +3053,29 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>0.3007363</v>
+      </c>
+      <c r="I83">
+        <v>0.3007363</v>
+      </c>
+      <c r="J83">
+        <v>0.7155303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>12</v>
       </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
       <c r="C84">
         <v>0</v>
       </c>
@@ -2884,10 +3085,28 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>0.3109031</v>
+      </c>
+      <c r="I84">
+        <v>0.6911311</v>
+      </c>
+      <c r="J84">
+        <v>0.6911311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>12</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2898,10 +3117,28 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>0.3536023</v>
+      </c>
+      <c r="I85">
+        <v>0.5772659</v>
+      </c>
+      <c r="J85">
+        <v>0.8090625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>12</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2912,10 +3149,28 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+      <c r="I86">
+        <v>0.7846627</v>
+      </c>
+      <c r="J86">
+        <v>0.3454689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>12</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -2926,10 +3181,28 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>0.6423313</v>
+      </c>
+      <c r="I87">
+        <v>0.6423313</v>
+      </c>
+      <c r="J87">
+        <v>0.3556352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>12</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -2940,10 +3213,28 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0.6789306000000001</v>
+      </c>
+      <c r="I88">
+        <v>0.2763361</v>
+      </c>
+      <c r="J88">
+        <v>0.752129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>12</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
       </c>
       <c r="C89">
         <v>-15</v>
@@ -2954,11 +3245,29 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>-1</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>0.8029623</v>
+      </c>
+      <c r="I89">
+        <v>0.5487992</v>
+      </c>
+      <c r="J89">
+        <v>0.08723905999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>12</v>
       </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
       <c r="C90">
         <v>0</v>
       </c>
@@ -2968,10 +3277,28 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>0.1543383</v>
+      </c>
+      <c r="I90">
+        <v>0.1543383</v>
+      </c>
+      <c r="J90">
+        <v>0.6728309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>12</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
       </c>
       <c r="C91">
         <v>-15</v>
@@ -2982,10 +3309,28 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+      <c r="I91">
+        <v>0.5</v>
+      </c>
+      <c r="J91">
+        <v>0.9717271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>12</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -2996,10 +3341,28 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>0.9900268</v>
+      </c>
+      <c r="I92">
+        <v>0.6423312</v>
+      </c>
+      <c r="J92">
+        <v>0.2783694</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>12</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
       </c>
       <c r="C93">
         <v>-15</v>
@@ -3010,10 +3373,28 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>-1</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>0.6809639</v>
+      </c>
+      <c r="I93">
+        <v>0.6809639</v>
+      </c>
+      <c r="J93">
+        <v>0.2987025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>12</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -3024,10 +3405,28 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>0.713497</v>
+      </c>
+      <c r="I94">
+        <v>0.713497</v>
+      </c>
+      <c r="J94">
+        <v>0.258037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>12</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3038,10 +3437,28 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>0.2885366</v>
+      </c>
+      <c r="I95">
+        <v>0.2885366</v>
+      </c>
+      <c r="J95">
+        <v>0.7968626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>12</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -3052,10 +3469,28 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>0.6301317</v>
+      </c>
+      <c r="I96">
+        <v>0.6301317</v>
+      </c>
+      <c r="J96">
+        <v>0.3373361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>12</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -3066,10 +3501,28 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>0.672831</v>
+      </c>
+      <c r="I97">
+        <v>0.672831</v>
+      </c>
+      <c r="J97">
+        <v>0.286503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>12</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3080,10 +3533,28 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>0.325136</v>
+      </c>
+      <c r="I98">
+        <v>0.325136</v>
+      </c>
+      <c r="J98">
+        <v>0.7541634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>12</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -3094,10 +3565,28 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>0.2406703</v>
+      </c>
+      <c r="I99">
+        <v>0.2406703</v>
+      </c>
+      <c r="J99">
+        <v>0.6920636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>12</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
       </c>
       <c r="C100">
         <v>-15</v>
@@ -3108,10 +3597,28 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>0.833462</v>
+      </c>
+      <c r="I100">
+        <v>0.7277303000000001</v>
+      </c>
+      <c r="J100">
+        <v>0.378002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>12</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
       </c>
       <c r="C101">
         <v>-15</v>
@@ -3122,10 +3629,28 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>0.3393686</v>
+      </c>
+      <c r="I101">
+        <v>0.3393686</v>
+      </c>
+      <c r="J101">
+        <v>0.7216299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>12</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
       </c>
       <c r="C102">
         <v>9</v>
@@ -3136,10 +3661,28 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>0.3088692</v>
+      </c>
+      <c r="I102">
+        <v>0.3088692</v>
+      </c>
+      <c r="J102">
+        <v>0.6545309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>12</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3150,10 +3693,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>0.6646976</v>
+      </c>
+      <c r="I103">
+        <v>0.6646976</v>
+      </c>
+      <c r="J103">
+        <v>0.3759687</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>12</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
       </c>
       <c r="C104">
         <v>9</v>
@@ -3164,11 +3725,29 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>0.27837</v>
+      </c>
+      <c r="I104">
+        <v>0.27837</v>
+      </c>
+      <c r="J104">
+        <v>0.6728309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>12</v>
       </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
       <c r="C105">
         <v>0</v>
       </c>
@@ -3178,10 +3757,28 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>0.2702362</v>
+      </c>
+      <c r="I105">
+        <v>0.2702362</v>
+      </c>
+      <c r="J105">
+        <v>0.7236628000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>12</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -3192,10 +3789,28 @@
       <c r="E106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>0.7114636</v>
+      </c>
+      <c r="I106">
+        <v>0.7114636</v>
+      </c>
+      <c r="J106">
+        <v>0.2682032</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>12</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3206,10 +3821,28 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>0.1828047</v>
+      </c>
+      <c r="I107">
+        <v>0.1828047</v>
+      </c>
+      <c r="J107">
+        <v>0.567099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>12</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -3220,10 +3853,28 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>0.2458369</v>
+      </c>
+      <c r="I108">
+        <v>0.2458369</v>
+      </c>
+      <c r="J108">
+        <v>0.7277299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>12</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
       </c>
       <c r="C109">
         <v>-15</v>
@@ -3234,10 +3885,28 @@
       <c r="E109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>-1</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>0.6707973</v>
+      </c>
+      <c r="I109">
+        <v>0.6707973</v>
+      </c>
+      <c r="J109">
+        <v>0.2641362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>12</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3248,10 +3917,28 @@
       <c r="E110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>0.6707973</v>
+      </c>
+      <c r="I110">
+        <v>0.6707973</v>
+      </c>
+      <c r="J110">
+        <v>0.3210689</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>12</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -3262,10 +3949,28 @@
       <c r="E111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>0.8659945999999999</v>
+      </c>
+      <c r="I111">
+        <v>0.8659945999999999</v>
+      </c>
+      <c r="J111">
+        <v>0.3353021</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>12</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
       </c>
       <c r="C112">
         <v>-15</v>
@@ -3276,10 +3981,28 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>-1</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>0.5</v>
+      </c>
+      <c r="I112">
+        <v>0.27837</v>
+      </c>
+      <c r="J112">
+        <v>0.7663631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>12</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
       </c>
       <c r="C113">
         <v>-15</v>
@@ -3290,10 +4013,28 @@
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>-1</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>0.8883614</v>
+      </c>
+      <c r="I113">
+        <v>0.4857665</v>
+      </c>
+      <c r="J113">
+        <v>0.2682028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>12</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -3304,10 +4045,28 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>0.8985277</v>
+      </c>
+      <c r="I114">
+        <v>0.4634002</v>
+      </c>
+      <c r="J114">
+        <v>0.1543378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>12</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
       </c>
       <c r="C115">
         <v>-15</v>
@@ -3318,10 +4077,28 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>-1</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>0.5</v>
+      </c>
+      <c r="I115">
+        <v>0.2356707</v>
+      </c>
+      <c r="J115">
+        <v>0.7826298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>12</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -3332,10 +4109,28 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>0.5</v>
+      </c>
+      <c r="I116">
+        <v>0.2763367</v>
+      </c>
+      <c r="J116">
+        <v>0.8232958</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>12</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3346,10 +4141,28 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>0.325136</v>
+      </c>
+      <c r="I117">
+        <v>0.325136</v>
+      </c>
+      <c r="J117">
+        <v>0.719597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>12</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
       </c>
       <c r="C118">
         <v>-15</v>
@@ -3360,10 +4173,28 @@
       <c r="E118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>-1</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>0.9147944</v>
+      </c>
+      <c r="I118">
+        <v>0.4634006</v>
+      </c>
+      <c r="J118">
+        <v>0.1909379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>12</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -3374,10 +4205,28 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>0.165438</v>
+      </c>
+      <c r="I119">
+        <v>0.165438</v>
+      </c>
+      <c r="J119">
+        <v>0.7794961</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>12</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
       </c>
       <c r="C120">
         <v>-15</v>
@@ -3388,10 +4237,28 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>-1</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>0.333269</v>
+      </c>
+      <c r="I120">
+        <v>0.333269</v>
+      </c>
+      <c r="J120">
+        <v>0.6728305999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>12</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3402,10 +4269,28 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>0.526433</v>
+      </c>
+      <c r="I121">
+        <v>0.526433</v>
+      </c>
+      <c r="J121">
+        <v>0.3088697</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>12</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
       </c>
       <c r="C122">
         <v>-15</v>
@@ -3416,10 +4301,28 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>-1</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>0.2763367</v>
+      </c>
+      <c r="I122">
+        <v>0.2763367</v>
+      </c>
+      <c r="J122">
+        <v>0.6585981</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>12</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3430,10 +4333,28 @@
       <c r="E123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>0.6972306</v>
+      </c>
+      <c r="I123">
+        <v>0.6972306</v>
+      </c>
+      <c r="J123">
+        <v>0.2194043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>12</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -3444,10 +4365,28 @@
       <c r="E124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>0.8090623</v>
+      </c>
+      <c r="I124">
+        <v>0.4878003</v>
+      </c>
+      <c r="J124">
+        <v>0.09740543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>12</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
       </c>
       <c r="C125">
         <v>-15</v>
@@ -3458,10 +4397,28 @@
       <c r="E125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>-1</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>0.7256966</v>
+      </c>
+      <c r="I125">
+        <v>0.7256966</v>
+      </c>
+      <c r="J125">
+        <v>0.3271688</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>12</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
       </c>
       <c r="C126">
         <v>-15</v>
@@ -3472,10 +4429,28 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>-1</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>0.7622963</v>
+      </c>
+      <c r="I126">
+        <v>0.7622963</v>
+      </c>
+      <c r="J126">
+        <v>0.2621031</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>12</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
       </c>
       <c r="C127">
         <v>9</v>
@@ -3486,10 +4461,28 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>0.178738</v>
+      </c>
+      <c r="I127">
+        <v>0.178738</v>
+      </c>
+      <c r="J127">
+        <v>0.7765293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>12</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -3500,10 +4493,28 @@
       <c r="E128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>0.6707973</v>
+      </c>
+      <c r="I128">
+        <v>0.6707973</v>
+      </c>
+      <c r="J128">
+        <v>0.2804025</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>12</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
       </c>
       <c r="C129">
         <v>9</v>
@@ -3514,10 +4525,28 @@
       <c r="E129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>0.6768973</v>
+      </c>
+      <c r="I129">
+        <v>0.6768973</v>
+      </c>
+      <c r="J129">
+        <v>0.3027696</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>12</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3528,10 +4557,28 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>0.5</v>
+      </c>
+      <c r="I130">
+        <v>0.339369</v>
+      </c>
+      <c r="J130">
+        <v>0.7846626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>12</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
       </c>
       <c r="C131">
         <v>-15</v>
@@ -3542,11 +4589,29 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>-1</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>0.5</v>
+      </c>
+      <c r="I131">
+        <v>0.5</v>
+      </c>
+      <c r="J131">
+        <v>0.748063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>12</v>
       </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="C132">
         <v>0</v>
       </c>
@@ -3556,10 +4621,28 @@
       <c r="E132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>0.5</v>
+      </c>
+      <c r="I132">
+        <v>0.5</v>
+      </c>
+      <c r="J132">
+        <v>0.1258719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>12</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -3570,10 +4653,28 @@
       <c r="E133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>0.6077654</v>
+      </c>
+      <c r="I133">
+        <v>0.6077654</v>
+      </c>
+      <c r="J133">
+        <v>0.03843983</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>12</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
       </c>
       <c r="C134">
         <v>-15</v>
@@ -3584,10 +4685,28 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>-1</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>0.27227</v>
+      </c>
+      <c r="I134">
+        <v>0.27227</v>
+      </c>
+      <c r="J134">
+        <v>0.6667309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>12</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
       </c>
       <c r="C135">
         <v>-15</v>
@@ -3598,10 +4717,28 @@
       <c r="E135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>-1</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>0.6463976</v>
+      </c>
+      <c r="I135">
+        <v>0.3698682</v>
+      </c>
+      <c r="J135">
+        <v>0.1035052</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>12</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
       </c>
       <c r="C136">
         <v>-15</v>
@@ -3612,10 +4749,28 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>-1</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>0.5</v>
+      </c>
+      <c r="I136">
+        <v>0.5</v>
+      </c>
+      <c r="J136">
+        <v>0.1035056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>12</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
       </c>
       <c r="C137">
         <v>9</v>
@@ -3626,10 +4781,28 @@
       <c r="E137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>0.8110957</v>
+      </c>
+      <c r="I137">
+        <v>0.8110957</v>
+      </c>
+      <c r="J137">
+        <v>0.1380718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>12</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
       </c>
       <c r="C138">
         <v>-15</v>
@@ -3640,10 +4813,28 @@
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>-1</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>0.9025947</v>
+      </c>
+      <c r="I138">
+        <v>0.9025947</v>
+      </c>
+      <c r="J138">
+        <v>0.1258722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>12</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
       </c>
       <c r="C139">
         <v>-15</v>
@@ -3654,11 +4845,29 @@
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>-1</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>0.7927961</v>
+      </c>
+      <c r="I139">
+        <v>0.7927961</v>
+      </c>
+      <c r="J139">
+        <v>0.2935364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>12</v>
       </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
       <c r="C140">
         <v>0</v>
       </c>
@@ -3668,10 +4877,28 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>0.26507</v>
+      </c>
+      <c r="I140">
+        <v>0.26507</v>
+      </c>
+      <c r="J140">
+        <v>0.8506617</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>12</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3682,10 +4909,28 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>0.251937</v>
+      </c>
+      <c r="I141">
+        <v>0.251937</v>
+      </c>
+      <c r="J141">
+        <v>0.7439962</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>12</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
       </c>
       <c r="C142">
         <v>-15</v>
@@ -3696,10 +4941,28 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>-1</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>0.766363</v>
+      </c>
+      <c r="I142">
+        <v>0.766363</v>
+      </c>
+      <c r="J142">
+        <v>0.07503913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>12</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -3710,10 +4973,28 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>0.118672</v>
+      </c>
+      <c r="I143">
+        <v>0.118672</v>
+      </c>
+      <c r="J143">
+        <v>0.7733961</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>12</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
       </c>
       <c r="C144">
         <v>9</v>
@@ -3724,10 +5005,28 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>0.0526729</v>
+      </c>
+      <c r="I144">
+        <v>0.0526729</v>
+      </c>
+      <c r="J144">
+        <v>0.7988956</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>12</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3738,10 +5037,28 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>0.2743033</v>
+      </c>
+      <c r="I145">
+        <v>0.2743033</v>
+      </c>
+      <c r="J145">
+        <v>0.7073969</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>12</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
       </c>
       <c r="C146">
         <v>-15</v>
@@ -3752,11 +5069,29 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>-1</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>0.8323616</v>
+      </c>
+      <c r="I146">
+        <v>0.8323616</v>
+      </c>
+      <c r="J146">
+        <v>0.1959371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>12</v>
       </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="C147">
         <v>0</v>
       </c>
@@ -3766,10 +5101,28 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>0.178738</v>
+      </c>
+      <c r="I147">
+        <v>0.178738</v>
+      </c>
+      <c r="J147">
+        <v>0.6524979</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>12</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3780,10 +5133,28 @@
       <c r="E148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>0.7968627</v>
+      </c>
+      <c r="I148">
+        <v>0.7968627</v>
+      </c>
+      <c r="J148">
+        <v>0.165438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>12</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -3794,10 +5165,28 @@
       <c r="E149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>0.8913276999999999</v>
+      </c>
+      <c r="I149">
+        <v>0.8913276999999999</v>
+      </c>
+      <c r="J149">
+        <v>0.2101706</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>12</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
       </c>
       <c r="C150">
         <v>9</v>
@@ -3808,10 +5197,28 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>0.9147944</v>
+      </c>
+      <c r="I150">
+        <v>0.4837336</v>
+      </c>
+      <c r="J150">
+        <v>0.06487282</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>12</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
       </c>
       <c r="C151">
         <v>9</v>
@@ -3822,10 +5229,28 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>0.2234707</v>
+      </c>
+      <c r="I151">
+        <v>0.2234707</v>
+      </c>
+      <c r="J151">
+        <v>0.7012969999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>12</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -3836,10 +5261,28 @@
       <c r="E152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>0.9818934</v>
+      </c>
+      <c r="I152">
+        <v>0.9818934</v>
+      </c>
+      <c r="J152">
+        <v>0.07393927</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>12</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
       </c>
       <c r="C153">
         <v>-15</v>
@@ -3850,10 +5293,28 @@
       <c r="E153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>-1</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>0.8822613</v>
+      </c>
+      <c r="I153">
+        <v>0.8822613</v>
+      </c>
+      <c r="J153">
+        <v>0.1665378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>12</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
       </c>
       <c r="C154">
         <v>-15</v>
@@ -3864,10 +5325,28 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>-1</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>0.1157057</v>
+      </c>
+      <c r="I154">
+        <v>0.1157057</v>
+      </c>
+      <c r="J154">
+        <v>0.8964947</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>12</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
       </c>
       <c r="C155">
         <v>-15</v>
@@ -3878,10 +5357,28 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>-1</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>0.7724626</v>
+      </c>
+      <c r="I155">
+        <v>0.7724626</v>
+      </c>
+      <c r="J155">
+        <v>0.09740553</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>12</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
       </c>
       <c r="C156">
         <v>9</v>
@@ -3892,10 +5389,28 @@
       <c r="E156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>0.7683964</v>
+      </c>
+      <c r="I156">
+        <v>0.7683964</v>
+      </c>
+      <c r="J156">
+        <v>0.2438035</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>12</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
       </c>
       <c r="C157">
         <v>-15</v>
@@ -3906,11 +5421,29 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>-1</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>0.2600699</v>
+      </c>
+      <c r="I157">
+        <v>0.2600699</v>
+      </c>
+      <c r="J157">
+        <v>0.6809639</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>12</v>
       </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
       <c r="C158">
         <v>0</v>
       </c>
@@ -3920,10 +5453,28 @@
       <c r="E158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>0.7887293</v>
+      </c>
+      <c r="I158">
+        <v>0.7887293</v>
+      </c>
+      <c r="J158">
+        <v>0.3027696</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>12</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
       </c>
       <c r="C159">
         <v>9</v>
@@ -3934,10 +5485,28 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>0.2661704</v>
+      </c>
+      <c r="I159">
+        <v>0.2661704</v>
+      </c>
+      <c r="J159">
+        <v>0.6646981</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>12</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3948,10 +5517,28 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>0.258037</v>
+      </c>
+      <c r="I160">
+        <v>0.258037</v>
+      </c>
+      <c r="J160">
+        <v>0.7846626</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>12</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3962,10 +5549,28 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>0.2905696</v>
+      </c>
+      <c r="I161">
+        <v>0.2905696</v>
+      </c>
+      <c r="J161">
+        <v>0.660631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>12</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3976,10 +5581,28 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>0.2234706</v>
+      </c>
+      <c r="I162">
+        <v>0.2234706</v>
+      </c>
+      <c r="J162">
+        <v>0.7683963</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>12</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
       </c>
       <c r="C163">
         <v>-15</v>
@@ -3990,10 +5613,28 @@
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>-1</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>0.8171957</v>
+      </c>
+      <c r="I163">
+        <v>0.8171957</v>
+      </c>
+      <c r="J163">
+        <v>0.2153371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>12</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
       </c>
       <c r="C164">
         <v>9</v>
@@ -4004,10 +5645,28 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>0.219404</v>
+      </c>
+      <c r="I164">
+        <v>0.219404</v>
+      </c>
+      <c r="J164">
+        <v>0.74603</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>12</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4018,10 +5677,28 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>0.2987026</v>
+      </c>
+      <c r="I165">
+        <v>0.2987026</v>
+      </c>
+      <c r="J165">
+        <v>0.6972303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>12</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -4032,10 +5709,28 @@
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>0.8456616</v>
+      </c>
+      <c r="I166">
+        <v>0.8456616</v>
+      </c>
+      <c r="J166">
+        <v>0.3902012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>12</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4046,10 +5741,28 @@
       <c r="E167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>0.8273621</v>
+      </c>
+      <c r="I167">
+        <v>0.8273621</v>
+      </c>
+      <c r="J167">
+        <v>0.1482383</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>12</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4060,11 +5773,29 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>0.2783701</v>
+      </c>
+      <c r="I168">
+        <v>0.2783701</v>
+      </c>
+      <c r="J168">
+        <v>0.7277304999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>12</v>
       </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
       <c r="C169">
         <v>0</v>
       </c>
@@ -4074,10 +5805,28 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>0.2539703</v>
+      </c>
+      <c r="I169">
+        <v>0.2539703</v>
+      </c>
+      <c r="J169">
+        <v>0.7378967</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>12</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
       </c>
       <c r="C170">
         <v>-15</v>
@@ -4088,10 +5837,28 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>-1</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0.1746713</v>
+      </c>
+      <c r="I170">
+        <v>0.1746713</v>
+      </c>
+      <c r="J170">
+        <v>0.7815294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>12</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
       </c>
       <c r="C171">
         <v>-15</v>
@@ -4102,11 +5869,29 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>-1</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>0.2438036</v>
+      </c>
+      <c r="I171">
+        <v>0.2438036</v>
+      </c>
+      <c r="J171">
+        <v>0.6951969</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>12</v>
       </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
       <c r="C172">
         <v>0</v>
       </c>
@@ -4116,10 +5901,31 @@
       <c r="E172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>4</v>
+      </c>
+      <c r="H172">
+        <v>0.2966697</v>
+      </c>
+      <c r="I172">
+        <v>0.2966697</v>
+      </c>
+      <c r="J172">
+        <v>0.6382647</v>
+      </c>
+      <c r="K172">
+        <v>0.339369</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>12</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
       </c>
       <c r="C173">
         <v>-15</v>
@@ -4130,10 +5936,28 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>-1</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>0.26007</v>
+      </c>
+      <c r="I173">
+        <v>0.26007</v>
+      </c>
+      <c r="J173">
+        <v>0.6036983</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>12</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4144,10 +5968,28 @@
       <c r="E174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>0.3007364</v>
+      </c>
+      <c r="I174">
+        <v>0.3007364</v>
+      </c>
+      <c r="J174">
+        <v>0.6280983999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>12</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
       </c>
       <c r="C175">
         <v>9</v>
@@ -4158,10 +6000,28 @@
       <c r="E175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175">
+        <v>0.2600699</v>
+      </c>
+      <c r="I175">
+        <v>0.2600699</v>
+      </c>
+      <c r="J175">
+        <v>0.6728305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>12</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
       </c>
       <c r="C176">
         <v>-15</v>
@@ -4172,10 +6032,28 @@
       <c r="E176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>-1</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>0.579299</v>
+      </c>
+      <c r="I176">
+        <v>0.579299</v>
+      </c>
+      <c r="J176">
+        <v>0.3088697</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>12</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
       </c>
       <c r="C177">
         <v>-15</v>
@@ -4186,10 +6064,28 @@
       <c r="E177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>-1</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>0.3495353</v>
+      </c>
+      <c r="I177">
+        <v>0.3495353</v>
+      </c>
+      <c r="J177">
+        <v>0.6606309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>12</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
       </c>
       <c r="C178">
         <v>9</v>
@@ -4200,10 +6096,28 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>0.3027697</v>
+      </c>
+      <c r="I178">
+        <v>0.3027697</v>
+      </c>
+      <c r="J178">
+        <v>0.7358633999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>12</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
       </c>
       <c r="C179">
         <v>-15</v>
@@ -4214,11 +6128,29 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>0.5</v>
+      </c>
+      <c r="I179">
+        <v>0.325136</v>
+      </c>
+      <c r="J179">
+        <v>0.6463981</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>12</v>
       </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
       <c r="C180">
         <v>0</v>
       </c>
@@ -4228,10 +6160,28 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180">
+        <v>0.3739354</v>
+      </c>
+      <c r="I180">
+        <v>0.3739354</v>
+      </c>
+      <c r="J180">
+        <v>0.6077654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>12</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
       </c>
       <c r="C181">
         <v>9</v>
@@ -4241,6 +6191,21 @@
       </c>
       <c r="E181">
         <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>0.6402979</v>
+      </c>
+      <c r="I181">
+        <v>0.6402979</v>
+      </c>
+      <c r="J181">
+        <v>0.1685712</v>
       </c>
     </row>
   </sheetData>
